--- a/WCC03-Selenium/testData/testData.xlsx
+++ b/WCC03-Selenium/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,8 +348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,7 +396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -420,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J125" sqref="J125"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WCC03-Selenium/testData/testData.xlsx
+++ b/WCC03-Selenium/testData/testData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Register" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,22 +23,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Selenium</t>
   </si>
   <si>
     <t>Advanced concept</t>
+  </si>
+  <si>
+    <t>Testing@123</t>
+  </si>
+  <si>
+    <t>fresher</t>
+  </si>
+  <si>
+    <t>C:\Users\user\Downloads\ZOHRA_ Resume.docx</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>Ankush</t>
+  </si>
+  <si>
+    <t>Ankush.789@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -60,14 +87,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -348,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,6 +428,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -406,7 +453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -418,22 +465,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J124"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>7891234587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="124" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J124" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WCC03-Selenium/testData/testData.xlsx
+++ b/WCC03-Selenium/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
     <sheet name="Register" sheetId="4" r:id="rId5"/>
+    <sheet name="urls" sheetId="6" r:id="rId6"/>
+    <sheet name="URL" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>Selenium</t>
   </si>
@@ -47,6 +49,168 @@
   </si>
   <si>
     <t>Ankush.789@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.medplusmart.com/</t>
+  </si>
+  <si>
+    <t>https://www.apollopharmacy.in/</t>
+  </si>
+  <si>
+    <t>https://bengaluru.asterpharmacy.in/</t>
+  </si>
+  <si>
+    <t>https://www.boots.com/</t>
+  </si>
+  <si>
+    <t>https://pharmeasy.in/</t>
+  </si>
+  <si>
+    <t>asdffsdafasd</t>
+  </si>
+  <si>
+    <t>sdfasfasdfaf</t>
+  </si>
+  <si>
+    <t>asffasfasffadsfasdf</t>
+  </si>
+  <si>
+    <t>sadfasdfas</t>
+  </si>
+  <si>
+    <t>'kjh;glfjkgh</t>
+  </si>
+  <si>
+    <t>sdfkjahkfalshf</t>
+  </si>
+  <si>
+    <t>lmfsdal/jk;f'lS</t>
+  </si>
+  <si>
+    <t>fadslkjbflasdjhfjas;f</t>
+  </si>
+  <si>
+    <t>sadf</t>
+  </si>
+  <si>
+    <t>fasdfasd</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>fas</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>ads</t>
+  </si>
+  <si>
+    <t>asf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://www.1mg.com/</t>
+  </si>
+  <si>
+    <t>https://www.pci.nic.in/</t>
+  </si>
+  <si>
+    <t>https://rxdx.in/pharmacy/</t>
+  </si>
+  <si>
+    <t>TC_Login_001</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trainee </t>
+  </si>
+  <si>
+    <t>trainee</t>
+  </si>
+  <si>
+    <t>TC_Register_001</t>
+  </si>
+  <si>
+    <t>hema</t>
+  </si>
+  <si>
+    <t>wcco3_sel</t>
+  </si>
+  <si>
+    <t>radhika</t>
+  </si>
+  <si>
+    <t>kalpana</t>
+  </si>
+  <si>
+    <t>mohini</t>
+  </si>
+  <si>
+    <t>shubhra</t>
+  </si>
+  <si>
+    <t>priyanka</t>
+  </si>
+  <si>
+    <t>hemawcc03_sel@gmail.com</t>
+  </si>
+  <si>
+    <t>radhikawcc03_sel@gmail.com</t>
+  </si>
+  <si>
+    <t>kalpanawcc03_sel@gmail.com</t>
+  </si>
+  <si>
+    <t>mohiniwcc03_sel@gmail.com</t>
+  </si>
+  <si>
+    <t>shubhrawcc03_sel@gmail.com</t>
+  </si>
+  <si>
+    <t>priyankawcc03_sel@gmail.com</t>
+  </si>
+  <si>
+    <t>he123ma</t>
+  </si>
+  <si>
+    <t>ra123ma</t>
+  </si>
+  <si>
+    <t>ka123ma</t>
+  </si>
+  <si>
+    <t>mo123ma</t>
+  </si>
+  <si>
+    <t>sh123ma</t>
+  </si>
+  <si>
+    <t>pr123ma</t>
   </si>
 </sst>
 </file>
@@ -91,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -100,6 +264,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -455,12 +621,183 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -469,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,4 +861,202 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BI547"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>-9078654</f>
+        <v>-9078654</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="492" spans="61:61" x14ac:dyDescent="0.25">
+      <c r="BI492" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="547" spans="43:43" x14ac:dyDescent="0.25">
+      <c r="AQ547" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WCC03-Selenium/testData/testData.xlsx
+++ b/WCC03-Selenium/testData/testData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>Selenium</t>
   </si>
@@ -136,24 +136,6 @@
   </si>
   <si>
     <t>https://rxdx.in/pharmacy/</t>
-  </si>
-  <si>
-    <t>TC_Login_001</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trainee </t>
-  </si>
-  <si>
-    <t>trainee</t>
-  </si>
-  <si>
-    <t>TC_Register_001</t>
   </si>
   <si>
     <t>hema</t>
@@ -621,182 +603,130 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
       <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D7" r:id="rId4"/>
-    <hyperlink ref="D8" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WCC03-Selenium/testData/testData.xlsx
+++ b/WCC03-Selenium/testData/testData.xlsx
@@ -606,7 +606,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
